--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F9FDF-0D2E-458E-954C-4817900F4DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460F9A6-31A5-439F-AD30-72FDFD75EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>The crux is to first setup an aggregate array, then perform Fibonacci on it. First aggregate all the sums into a sums array to map each value (index) to the sum value (nums value), then use Fibonacci for take and not take buckets. You can also reduce it to House Robber, and the same algorithm can be applied. Set up the problem so all of the same values are summed into a house. The recurrence relation is: sum[i] = Max(sum[i-1], sum[i-2] + sum[i]).</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/solutions/3345941/explained-in-detailed-with-image-dry-run-of-same-i-p-most-upvoted/</t>
+  </si>
+  <si>
+    <t>2D grid dp. The intuition is that the min path at each position is computed by the min of the cell above and to the left. First handle the first row and column. The last cell in the grid will be left with the min path sum.</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,9 +470,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{48F69B83-FBDF-4ABF-9129-B8A4220A9A2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460F9A6-31A5-439F-AD30-72FDFD75EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ABAA43-A4D4-4EF7-9807-402373C854E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Question</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>2D grid dp. The intuition is that the min path at each position is computed by the min of the cell above and to the left. First handle the first row and column. The last cell in the grid will be left with the min path sum.</t>
+  </si>
+  <si>
+    <t>516. Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/longest-palindromic-subsequence/solutions/3415577/image-explanation-recursion-top-down-bottom-up-bottom-up-o-n/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>The crux is finding the base cases. If the start index is past the end, 0. If the start is at end (one character), it counts as 1, if they are the same values, add 2. At each iteration, you have 3 choices, if the outer chars are the same, you immediately add 2 and recursively solve the inner by shifting pointers in, or not adding yet, and shifting either the start or the end pointer first. Return the max of shifting the left and shifting the right.</t>
   </si>
 </sst>
 </file>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +499,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{48F69B83-FBDF-4ABF-9129-B8A4220A9A2E}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{94037BC0-7E99-40C5-B328-E9C36ABF1535}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ABAA43-A4D4-4EF7-9807-402373C854E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24166543-6FBC-468F-8A69-E2FE80C197F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>The crux is finding the base cases. If the start index is past the end, 0. If the start is at end (one character), it counts as 1, if they are the same values, add 2. At each iteration, you have 3 choices, if the outer chars are the same, you immediately add 2 and recursively solve the inner by shifting pointers in, or not adding yet, and shifting either the start or the end pointer first. Return the max of shifting the left and shifting the right.</t>
+  </si>
+  <si>
+    <t>673. Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>The crux is to build on finding Longest Increasing Subsequences, and storing the LIS that ends at i in a len array, and the number of LIS that ends at i in a count array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-longest-increasing-subsequence/solutions/500880/java-dp-with-explanation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -434,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,11 +528,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{48F69B83-FBDF-4ABF-9129-B8A4220A9A2E}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{94037BC0-7E99-40C5-B328-E9C36ABF1535}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{370F78C0-196A-4D8E-83F4-91A7449A5DAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24166543-6FBC-468F-8A69-E2FE80C197F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F665F-5200-4B70-86DD-A9F50E0599F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/number-of-longest-increasing-subsequence/solutions/500880/java-dp-with-explanation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>1035. Uncrossed Lines</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>An application of Longest Common Subsequence. Try greedy, but you can find a counterexample to see it wont work. The crux is to take/not take using recursion. If nums[i] and nums[j] are equal, iterate both and call recursion, else take the max of iterating i and iterating j. By taking the maximum, you inherently handle crossed lines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/uncrossed-lines/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,12 +557,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{48F69B83-FBDF-4ABF-9129-B8A4220A9A2E}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{94037BC0-7E99-40C5-B328-E9C36ABF1535}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{370F78C0-196A-4D8E-83F4-91A7449A5DAC}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{A472B15C-5A0C-4FC7-94CF-A79885A80ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F665F-5200-4B70-86DD-A9F50E0599F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D097599-4BB7-464B-9F4C-CFA843DF3AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/uncrossed-lines/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>714. Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>State Machine</t>
+  </si>
+  <si>
+    <t>The crux is to be greedy with local minima/maxima and tocall the recursion on the future (index + 1) +/- the current index. The same algorithm for Buy and Sell Stock with Cooldown can be used, but simply subtract the fee from selling profits. We can use a hashmap to cache the (indexing and buying, max profits). Remember to use boolean buying for one of the dfs paramaters. There is a a cooldown logic still, for wait (recursion with index+1). Then for the recursive step, have the trade logic as the potential profit, obtained from if buying: dfs(index + 1) - price[index], else if not buying: dfs(index+1) + price[index] - fee. Update the cache before returning the same key from the cache. The base case of index &gt;= prices.length will be the stop condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/solutions/108871/2-solutions-2-states-dp-solutions-clear-explanation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +586,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -581,6 +610,7 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{94037BC0-7E99-40C5-B328-E9C36ABF1535}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{370F78C0-196A-4D8E-83F4-91A7449A5DAC}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{A472B15C-5A0C-4FC7-94CF-A79885A80ADC}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{784BD35A-9BC1-4D70-AB2B-7A8B3C4E7723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D097599-4BB7-464B-9F4C-CFA843DF3AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A3DE3-F70E-4419-A523-2D003DABB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/solutions/108871/2-solutions-2-states-dp-solutions-clear-explanation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>96. Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/unique-binary-search-trees/solutions/1565543/c-python-5-easy-solutions-w-explanation-optimization-from-brute-force-to-dp-to-catalan-o-n/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>The crux is to understand that we form unique nodes from root 1 to n, and then the left child will be nodes from 1 to n-1, and the right will from i+1 to n. the total number of unique BSTs for each I is given by numTrees(i-1) * numTrees(n-i). The number of unique BSTS is given by i+1-i to n-i (left) = 1 to n-1 (right). The most optimal is to use Catalan numbers.</t>
   </si>
 </sst>
 </file>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +615,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -611,6 +640,7 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{370F78C0-196A-4D8E-83F4-91A7449A5DAC}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{A472B15C-5A0C-4FC7-94CF-A79885A80ADC}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{784BD35A-9BC1-4D70-AB2B-7A8B3C4E7723}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{1269EB4E-20D1-4DB1-B612-D9C7AE606834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A3DE3-F70E-4419-A523-2D003DABB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56571B-4AC0-4B7C-8ACC-3BDB4B464FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>The crux is to understand that we form unique nodes from root 1 to n, and then the left child will be nodes from 1 to n-1, and the right will from i+1 to n. the total number of unique BSTs for each I is given by numTrees(i-1) * numTrees(n-i). The number of unique BSTS is given by i+1-i to n-i (left) = 1 to n-1 (right). The most optimal is to use Catalan numbers.</t>
+  </si>
+  <si>
+    <t>279. Perfect Squares</t>
+  </si>
+  <si>
+    <t>Knapsack</t>
+  </si>
+  <si>
+    <t>The crux is that we find the square at each i in i to n, then recurse on n-square. The counter should take the min of res, 1+numSquares(n-square). We know that n&lt;4 has no squares other than 1, so n&lt;4 return n. 1 counts as a square in this question. Iterate i from 1, where i*I &lt;= n. There are mathematical formulas, but memorize them later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/perfect-squares/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -482,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +644,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -641,6 +670,7 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{A472B15C-5A0C-4FC7-94CF-A79885A80ADC}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{784BD35A-9BC1-4D70-AB2B-7A8B3C4E7723}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{1269EB4E-20D1-4DB1-B612-D9C7AE606834}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{ECCDD114-4E77-4057-8011-A287BC1556F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56571B-4AC0-4B7C-8ACC-3BDB4B464FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFB887-F402-4632-B8ED-116F7441FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/perfect-squares/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>2140. Solving Questions With Brainpower</t>
+  </si>
+  <si>
+    <t>General 1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/solving-questions-with-brainpower/solutions/1692920/python3-java-c-dfs-memoization-iterative-o-n/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>House Robber variation. This is a Take/Not Take problem (but not backtracking). The crux is to use recursion to find the max of take and not take, and to manage the skip period in questions[i][1] using the index in the recursive calls. Take will be the value at the index + recursive call on the index after the skip period. Skip is simply recursion on the next index. Remember to add +1 to the skip index to move to the next after skip period. You need to at least use memoization to not get TLE. Use 1D memo for the index. The iterative bottom-up solution is very clean for this question.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +673,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -671,6 +700,7 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{784BD35A-9BC1-4D70-AB2B-7A8B3C4E7723}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{1269EB4E-20D1-4DB1-B612-D9C7AE606834}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{ECCDD114-4E77-4057-8011-A287BC1556F0}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{DDCD26F3-AE01-4A79-BD34-1966942BA4DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFB887-F402-4632-B8ED-116F7441FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB74E8-FDF4-49DD-ADA3-153585D2C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>House Robber variation. This is a Take/Not Take problem (but not backtracking). The crux is to use recursion to find the max of take and not take, and to manage the skip period in questions[i][1] using the index in the recursive calls. Take will be the value at the index + recursive call on the index after the skip period. Skip is simply recursion on the next index. Remember to add +1 to the skip index to move to the next after skip period. You need to at least use memoization to not get TLE. Use 1D memo for the index. The iterative bottom-up solution is very clean for this question.</t>
+  </si>
+  <si>
+    <t>63. Unique Paths II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths-ii/solutions/1180249/easy-solutions-w-explanation-comments-optimization-from-brute-force-approach/?envType=study-plan-v2&amp;envId=dynamic-programming</t>
+  </si>
+  <si>
+    <t>General 2D DP. We accumulate paths. Conditions to check are out of bounds and goal state. Need to use memoization or bottom-up to get accepted.</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E19:E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +699,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -701,6 +727,7 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{1269EB4E-20D1-4DB1-B612-D9C7AE606834}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{ECCDD114-4E77-4057-8011-A287BC1556F0}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{DDCD26F3-AE01-4A79-BD34-1966942BA4DF}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{AFAC3A84-8B5F-4BD6-A701-1330B27367F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB74E8-FDF4-49DD-ADA3-153585D2C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BA815-2554-484C-8A45-D749395520F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Question</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>General 2D DP. We accumulate paths. Conditions to check are out of bounds and goal state. Need to use memoization or bottom-up to get accepted.</t>
+  </si>
+  <si>
+    <t>646. Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>The optimal is the Greedy solution. House Robber variation. Take/Not Take. Based on the conditions, we need to skip, but if conditions are met, we need to iterate within the recursive function to find maxChain of max(maxChain, 1+solve) (take and not take for the rest of the array). The return is then the max of maxChain and solve(i+1) (not take). Remember the Java 8 lambda sort for sorting a 2d array: Arrays.sort(pairs, (a,b) -&gt; Integer.compare(a[0], b[0])); You need memoization atleast to pass TLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-length-of-pair-chain/solutions/745935/java-solution-recursion-memoziation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +725,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -728,6 +754,7 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{ECCDD114-4E77-4057-8011-A287BC1556F0}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{DDCD26F3-AE01-4A79-BD34-1966942BA4DF}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{AFAC3A84-8B5F-4BD6-A701-1330B27367F1}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{C802FC15-EDAE-46F3-9E5B-3F333D6D5487}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/LC_DP_and_DP_GM.xlsx
+++ b/java/LC_DP_and_DP_GM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BA815-2554-484C-8A45-D749395520F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62F314-104E-4F24-A988-82276FA8CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Question</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-length-of-pair-chain/solutions/745935/java-solution-recursion-memoziation/?envType=study-plan-v2&amp;envId=dynamic-programming </t>
+  </si>
+  <si>
+    <t>1020. Number of Enclaves</t>
+  </si>
+  <si>
+    <t>Matrix Graphs</t>
+  </si>
+  <si>
+    <t>Flood fill from the edges. DFS from any 1s on the edges and mark them as 0, then to another pass to count the remaining 1s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-enclaves/solutions/3388131/python-java-c-simple-solution-easy-to-understand/?envType=study-plan-v2&amp;envId=graph-theory </t>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +754,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{436C69DA-27D6-403C-8212-6636E4851942}"/>
@@ -755,6 +784,7 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{DDCD26F3-AE01-4A79-BD34-1966942BA4DF}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{AFAC3A84-8B5F-4BD6-A701-1330B27367F1}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{C802FC15-EDAE-46F3-9E5B-3F333D6D5487}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{6A4E6840-FF66-4239-864F-B22329F7C640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
